--- a/experiment result cnn/128_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/128_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01006200234746273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01212283455830973</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004703502479218397</v>
+        <v>0.0004807439947639916</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005855250118762203</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005209703656766698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006270041291468353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006827609886393159</v>
+        <v>0.000100049999974975</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0009569596964589932</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01200462759215548</v>
+        <v>0.0001600799999474575</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004099022320649751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03559356827650983</v>
+        <v>0.0004405839973182558</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03458047489524262</v>
+        <v>0.004589744643829991</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00560427399878601</v>
+        <v>0.000140053999974895</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01353329796257025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0316592979143936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01879684323977656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03422420472257827</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0007219337093479234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00438951063496512</v>
+        <v>0.003114256624200185</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01156216745011046</v>
+        <v>0.0007416219752621213</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04586312460639046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00598222330600315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02057027042155921</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0140936609375924</v>
+        <v>0.004586930928864837</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004451432441537118</v>
+        <v>0.0001400739999480578</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004180934816674283</v>
+        <v>0.0005407139957595107</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00935653876883335</v>
+        <v>0.0006215779752750114</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01444199281513892</v>
+        <v>0.00281862256156675</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002259156770111378</v>
+        <v>0.001348209320263212</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0103870872029572</v>
+        <v>0.0005006979957723261</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002318955284862469</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001786214806438326</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02191790537394032</v>
+        <v>0.0004004439984339863</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.005331274739507444</v>
+        <v>0.0005808499953849754</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001443228094878008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01733524239298245</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.007998120655625818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.003055229526276336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001296832599499854</v>
+        <v>0.002959827293928518</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05332817570327061</v>
+        <v>0.00020009999994995</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0359336608501558</v>
+        <v>0.0003603719988442976</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00142335353499475</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02946553170053164</v>
+        <v>0.000280195999726799</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01431443235279494</v>
+        <v>0.001162987942733448</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.000667919809397983</v>
+        <v>0.0007827416465665482</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04101622124115943</v>
+        <v>0.0001800699999716931</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003923537372991417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.003883384366067883</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.001645975292152584</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.008373779814397398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0029864650934113</v>
+        <v>0.1325107287615348</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.005599709680572179</v>
+        <v>0.04543288346149867</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000709456796062428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004732347208066304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003419822273254563</v>
+        <v>0.002970059477809172</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01732230679686041</v>
+        <v>0.008127341991838403</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00356140267520988</v>
+        <v>0.00176606370290156</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006200669642078864</v>
+        <v>0.001263225766787519</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005722820862063152</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00628790385159632</v>
+        <v>0.04276349372328297</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0008000841508889299</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0006587978633175621</v>
+        <v>0.001866065722991016</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0009570784533277067</v>
+        <v>0.001729107229754703</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007401501902334217</v>
+        <v>0.001993724161013343</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.003561525133599019</v>
+        <v>0.04846795782671355</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004978143083829543</v>
+        <v>0.05887345083873143</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003283879675195459</v>
+        <v>0.009439002224146797</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.008077367590881627</v>
+        <v>0.1307108578243142</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002935475908323782</v>
+        <v>0.0006810319931632999</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005334796973657558</v>
+        <v>0.03875747296676645</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001875316068464556</v>
+        <v>0.007704645641100469</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0004603460284672061</v>
+        <v>0.007188527191792085</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0005946530882403349</v>
+        <v>0.0386482393848088</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01306955606442234</v>
+        <v>0.03807152317153674</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00738333483175547</v>
+        <v>0.04870920456668783</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01233576739177457</v>
+        <v>0.03688904034639275</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007743127002661228</v>
+        <v>0.008290274313228799</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00291933364922768</v>
+        <v>0.32852549889062</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004828160185060512</v>
+        <v>0.1570758602480665</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01183599034569923</v>
+        <v>0.09415941981321627</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006089561465634607</v>
+        <v>0.1472438857314513</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006909244148254149</v>
+        <v>0.007990523515617931</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01548831410674561</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03615337923314085</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006079321449165964</v>
+        <v>0.05040372064256153</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00302739149507313</v>
+        <v>0.04016700353523196</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.009374369643335375</v>
+        <v>0.09295761733948707</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.003836995502958364</v>
+        <v>0.0002402879991685669</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01301636210452437</v>
+        <v>0.007900837452797625</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003382969295533393</v>
+        <v>0.002415996097052178</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03137553835402129</v>
+        <v>0.01900919355650177</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000508264849256071</v>
+        <v>0.02710391754694073</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03990251710043111</v>
+        <v>0.0491575651546359</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.002308783915099405</v>
+        <v>0.3275134480368892</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0007465982954853084</v>
+        <v>0.002408731666425073</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01611333217078577</v>
+        <v>0.003861481230800377</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01060248282134824</v>
+        <v>0.001562975844917727</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02056336090294143</v>
+        <v>0.01423664491710145</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01340012981631128</v>
+        <v>0.01825752151635654</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.004168392325877603</v>
+        <v>0.05312233719116657</v>
       </c>
     </row>
   </sheetData>
